--- a/Statistic/result/depend_live_time_on_traps/Function_alroxy_5.xlsx
+++ b/Statistic/result/depend_live_time_on_traps/Function_alroxy_5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Function</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>$\frac{a}{x^b}$</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>$a \ln{x} + b$</t>
@@ -445,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>27356.44135141679</v>
+        <v>31903.4042825954</v>
       </c>
       <c r="D2">
-        <v>-600.7788763737625</v>
+        <v>-711.8330580839458</v>
       </c>
       <c r="F2">
-        <v>59.79</v>
+        <v>43.104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -462,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>518463.4375304976</v>
+        <v>559968.2446333109</v>
       </c>
       <c r="D3">
-        <v>-253.8847176950665</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+        <v>-269.7453772275728</v>
+      </c>
+      <c r="F3">
+        <v>28.339</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -479,13 +476,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>328003249.5723165</v>
+        <v>317248448.8044441</v>
       </c>
       <c r="D4">
-        <v>-79.298725200779</v>
+        <v>-48.59928395927841</v>
       </c>
       <c r="F4">
-        <v>38.545</v>
+        <v>10.265</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -496,13 +493,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-345.4951624028915</v>
+        <v>-441.5745538475446</v>
       </c>
       <c r="D5">
-        <v>2645.175968189806</v>
+        <v>3350.949922801707</v>
       </c>
       <c r="F5">
-        <v>0.497</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -513,16 +510,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.0002590177491540446</v>
+        <v>0.0003216432725102153</v>
       </c>
       <c r="D6">
-        <v>-1.101777829845831</v>
+        <v>-1.244372702002898</v>
       </c>
       <c r="E6">
-        <v>1127.723329088439</v>
+        <v>1225.385926880944</v>
       </c>
       <c r="F6">
-        <v>40.035</v>
+        <v>22.124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -533,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.1952157079458602</v>
+        <v>-0.311607211694845</v>
       </c>
       <c r="D7">
-        <v>430.5770574845081</v>
+        <v>610.2431681639357</v>
       </c>
       <c r="F7">
-        <v>75.762</v>
+        <v>80.10599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -550,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>243196676112.8919</v>
+        <v>3504027905.540135</v>
       </c>
       <c r="D8">
-        <v>3.013350246702868</v>
+        <v>2.376701157283584</v>
       </c>
       <c r="F8">
-        <v>36.797</v>
+        <v>36.75</v>
       </c>
     </row>
   </sheetData>
@@ -597,13 +594,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>950264976.0011942</v>
+        <v>1809268674.674622</v>
       </c>
       <c r="D2">
-        <v>23962.96584708578</v>
+        <v>-449103.5721079677</v>
       </c>
       <c r="F2">
-        <v>3.847</v>
+        <v>7.484</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -614,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>47857526.38872941</v>
+        <v>95365798.83015354</v>
       </c>
       <c r="D3">
-        <v>-562799.8477925071</v>
+        <v>-1685906.312144641</v>
       </c>
       <c r="F3">
-        <v>3.737</v>
+        <v>9.327</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -628,16 +625,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>-587024.2875856882</v>
+        <v>-1236397.698586838</v>
       </c>
       <c r="D4">
-        <v>4979541.259110044</v>
+        <v>9837847.993772594</v>
       </c>
       <c r="F4">
-        <v>4.766</v>
+        <v>11.134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -648,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1839821230920372</v>
+        <v>1.015686772193412</v>
       </c>
       <c r="D5">
-        <v>-1010.062058204283</v>
+        <v>-3961.729744189028</v>
       </c>
       <c r="E5">
-        <v>1775014.039401226</v>
+        <v>4352182.710446069</v>
       </c>
       <c r="F5">
-        <v>5.491</v>
+        <v>4.919</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -668,13 +665,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-327.645047072992</v>
+        <v>-792.7870154379273</v>
       </c>
       <c r="D6">
-        <v>1197600.964643524</v>
+        <v>2021249.280906978</v>
       </c>
       <c r="F6">
-        <v>7.197</v>
+        <v>14.649</v>
       </c>
     </row>
   </sheetData>
